--- a/Planejamento/metas.xlsx
+++ b/Planejamento/metas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\reelsdecinema\Planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ultimatemembers\Planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928F1C57-D2D5-49AC-8B5A-06C3212D3BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DE939B-F788-4A3E-9C31-EA0A8DE08998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CAB6E5D5-6EEA-493A-9A90-01D7A67F14A3}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
       </c>
       <c r="C2" s="3">
         <f>AVERAGE(C3:C8)</f>
-        <v>0.26666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
